--- a/code/RT_data_edited.xlsx
+++ b/code/RT_data_edited.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/Documents_Air/GitHub/istart-socdoors/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9F03D3E-5443-D546-9436-F5FB9B0D5662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B78D0A-5914-9A42-B3B1-F157E76D4549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="1200" windowWidth="24740" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D1:AN46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AL9" sqref="AL9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -538,7 +538,9 @@
     <col min="28" max="28" width="20.5" customWidth="1"/>
     <col min="29" max="30" width="12.6640625" customWidth="1"/>
     <col min="31" max="31" width="21.6640625" customWidth="1"/>
-    <col min="32" max="34" width="19.5" customWidth="1"/>
+    <col min="32" max="32" width="19.5" customWidth="1"/>
+    <col min="33" max="33" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="25.5" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="24.33203125" bestFit="1" customWidth="1"/>
